--- a/RepB_TextoOriginal_TXTs.xlsx
+++ b/RepB_TextoOriginal_TXTs.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,31 +427,37 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.8" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="22.8" customWidth="1" min="3" max="3"/>
+    <col width="5222.4" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ranking</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Contenido</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,7 +500,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,7 +539,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">

--- a/RepB_TextoOriginal_TXTs.xlsx
+++ b/RepB_TextoOriginal_TXTs.xlsx
@@ -431,7 +431,7 @@
     <col width="10.8" customWidth="1" min="1" max="1"/>
     <col width="8.4" customWidth="1" min="2" max="2"/>
     <col width="22.8" customWidth="1" min="3" max="3"/>
-    <col width="5222.4" customWidth="1" min="4" max="4"/>
+    <col width="8112" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,39 +462,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Noticia N° 10.txt</t>
+          <t>Noticia N° 09.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">Título: 
-Taylor Swift: para un estadounidense puede ser más barato verla en Buenos Aires que comprar un ticket en Los Ángeles
+Sin el aporte del dólar soja, el Banco Central compró solo USD 6 millones en el mercado
 Resumen: 
-El alto costo de las entradas para presenciar el show de la artista en su país de origen generó polémica entre sus fanáticos, a los que un portal financiero de EEUU les recomendó venir a los recitales en la Argentina
+La entidad monetaria encadenó 20 ruedas operativas con compras netas, pero el margen se achicó en el primer día sin el agregado del tipo de cambio especial para las exportaciones sojeras
 Contenido: 
 6 Jun, 2023
-En medio de las quejas por el alto costo al que se venden en Estados Unidos las entradas para el Eras Tour de la exitosa cantante Taylor Swift, un sitio de finanzas norteamerincano hizo un llamativo cálculo: el portal estimó cuánto cuesta viajar desde Los Angeles a Buenos Aires y comprar los tickets para la presentación de la cantante en la Argentina en vez de comprar los tickets para ver su actuación en Los Ángleles.
-La conclusión fue sorprendente: aunque sin computar estadía y comida, el costo del pasaje de avión más la compra de las entradas al recital en Buenos Aires resultó en un combo más económico que ir a verla en su país de origen.
-Según Morning Brew “viajar en avión desde Los Angeles a Buenos Aires y comprar los tickets para ver a la cantante pop Taylor Swift es más barato para un estadounidense que ver a la artista en su propio país “gracias a la inflación de 100% en la Argentina”.
-De acuerdo a los precios publicados por la cuenta de Twitter del sitio especializado, @morningbrew, la comparación de precios es la siguiente:
-* Precio de las entradas para ver a Taylor Swift en Los Angeles: 1.500 dólares
-* Pasajes aéreos Los Ángeles - Buenos Aires: 750 dólares
-* Valor de las entradas al concierto en Buenos Aires: 153 dólares.
-“Gracias a la inflación del 100% en Argentina, en realidad es más barato para alguien en Los Ángeles volar a Argentina para un concierto del Eras Tour que ir al estadio SoFi”, indicó.
-La cantante de pop estadounidense Taylor Swift se presentará en la Argentina con dos conciertos en el Estadio de River Plate el 9 y 10 de noviembre próximos en el marco de su gira internacional “The Eras Tour”, se informó a través de un comunicado de prensa.
-Según se anunció, las entradas para ambos shows estarán a la venta para clientes de Banco Patagonia desde hoy y por 24 horas (o hasta agotar stock, lo que suceda primero), en tanto que la venta general comenzará mañana, el martes 6 de junio a las 10.
-Los precios, que se podrán pagar hasta en 6 cuotas con la tarjeta de la entidad bancaria que promociana el recital, parten de los $16.000, en la ubicación denominada Centenario Alta Visión restringida (detrás del escenario, donde se puede disfrutar de la música pero no se aprecia la totalidad del show) hasta los $85.000, las entradas más caras. En dólares, al tipo de cambio libre, es un precio menor a los USD 175 para la entrada más costosa. 
-La gira internacional comenzará el 24 de agosto con tres fechas en la Ciudad de México. Luego, tras los dos conciertos en el estadio de River, las presentaciones continuarán en Brasil con un show el 18 de noviembre en Río de Janeiro y otros dos (el 25 y 26 de ese mes) en San Pablo.
-En todas las fechas de América Latina, Taylor Swift contará con la cantante norteamericana Sabrina Carpenter como invitada especial.
-Seguir leyendo
+En una sesión con USD 347,2 millones en el segmento de contado (spot), las liquidaciones por el Programa de Incremento Exportador para Economías Regionales, a $300 por dólar, aportaron USD 16,7 millones, ya sin el volumen aportado por las ventas de soja y derivados, que gozaron de este estándar cambiario hasta la semana pasada. El BCRA concluyó su intervención cambiaria del día con saldo neto comprador de solo 6 millones de dólares.
+Por operaciones con dólar agro se registran en esta tercera etapa ingresos por USD 5.127,5 millones desde el 10 de abril a esta parte. Asimismo, desde que empezó el 2023 el balance del BCRA por la intervención cambiaria es negativo en USD 2.027 millones, mientras que en junio sostiene im saldo comprador de 92 millones de dólares.
+El BCRA aceleró el resguardo de sus escasas reservas, con una medida que afecta a las provincias y municipios, y en momentos en el que el Ministerio de Economía planea un nuevo canje voluntario de bonos en pesos con el objetivo de despejar vencimientos.
+El ministro de Economía, Sergio Massa, viajará a Washington cerca del 18 de junio en procura de cerrar la readecuación del acuerdo con el Fondo Monetario Internacional (FMI), lo que permitiría a la Argentina obtener el adelanto de desembolsos y nuevas metas a cumplir, luego del impacto de la sequía sobre las exportaciones del sector agro,
+“Las negociaciones entre Argentina y los funcionarios técnicos del Fondo avanzan desde hace casi dos meses a través de reuniones virtuales, en las que se está definiendo cómo modificar el viejo acuerdo, virtualmente suspendido luego que no se cumplieran las metas de reservas y fiscales en el primer trimestre de 2023″, comentaron los expertos de Research for Traders.
+El objetivo de Economía es que el Fondo adelante, al menos, una parte de los desembolsos que tenía comprometidos hasta fin de año por unos USD 10.600 millones, lo que ayudaría a reforzar las reservas en un año en el que las exportaciones del sector agro caerían cerca de USD 20.000 millones, de acuerdo a proyecciones de la Bolsa de Comercio de Rosario (BCR).
+De tales desembolsos había dudas sobre cuánto se podría utilizar para intervenir en el mercado cambiario. El Fondo aceptaría que el BCRA intervenga ante eventuales situaciones de stress. Lo que todavía no está resuelto es el monto que el FMI consentiría para estas intervenciones.
+Las reservas internacionales brutas del Banco Central crecieron la semana pasada en USD 28 millones y finalizaron en 32.991 millones de dólares.
+Un informe de Anker Latinoamérica subrayó que en cuanto a las reservas líquidas del BCRA, “su disponibilidad hoy está dada en gran medida por los encajes sobre las cuentas bancarias en otras monedas depositados en el BCRA -USD 11.000 millones-. La estabilidad de los depósitos en moneda extranjera es crucial para sostener la capacidad de intervención del BCRA”.
+Luego de las diversas gestiones del ministro Massa para incentivar el pago de importaciones con la divisa china, se expandió el uso de yuanes en el comercio exterior. Entre enero y mayo hubo operaciones por el equivalente a USD 2.321 millones. Además, dos empresas fabricantes de electrónica confirmaron que pagarán compromisos de deuda por un total de USD 630 millones en esa moneda, por lo que el alivio para las arcas del BCRA superará los USD 3.000 millones en el primer trimestre de 2023.
+Seguir leyendo:
 URLs de las imagenes:
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/W6Y43X3FJZGCTE35TCNXLYHMSI.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/2QXBWKYJPBGI5IOM2KJWYTKESA.png
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/ZLQR6NZ7CJD63PK4MGUXPJNQ44.png
 </t>
         </is>
       </c>
@@ -505,35 +501,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>0.095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Noticia N° 05.txt</t>
+          <t>Noticia N° 08.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">Título: 
-La billetera de Google ya puede descargarse para ser utilizada en la Argentina
+Qué opinan los economistas sobre el crecimiento y la creación de empleo tras la polémica entre Lousteau y Cerruti
 Resumen: 
-En las redes sociales muchos usuarios comentaron que ya tienen la herramienta en sus celulares y que pudieron cargarle los datos de tarjetas de crédito de bancos argentinos
+En una entrevista con Infobae, el senador y precandidato a jefe de gobierno aseguró que la economía Argentina no crea trabajo y hace 50 años que no crece. La portavoz presidencial lo cruzó; qué dicen los analistas
 Contenido: 
 6 Jun, 2023
-Por  Fernando Meaños
-Google Wallet, la billetera electrónica utilizada en todo el mundo administrada por el gigante de Internet, ya puede descargarse en la Argentina para para hacer pagos “contactless” en comercios con tarjetas de crédito o débito emitidas en el país. Muchos usuarios, en especial habituados a usar la herramienta en otros países, comenzaron a comentar la novedad en redes sociales y a compartir experiencias acerca de su utilización.
-El mecanismo para registrarse, de acuerdo a lo que pudo comprobar Infobae, es rápido y simple. Una vez descargada la app en el teléfono celular, algo que lleva pocos segundos, hace falta anotar los datos personales, incluyendo un teléfono y un correo electrónico de Gmail. Una vez cumplido ese paso, ya es posible cargar tarjetas de crédito de bancos argentinos. Para ese fin, se pide un nuevo paso de seguridad, tal como recibir un código numérico a través de un SMS o acreditar a través de un llamado al banco emisor. La billetera también permite designarla como “medio de pago predeterminado” en caso de que en el mismo teléfono celular estén cargadas herramientas de uso similar.
-Si bien desde la empresa aún no se informó sobre su disponibilidad en el país muchos usuarios esperaban esa posibilidad y la noticia empezó a expandirse por las redes. Quienes ya la utilizaban con tarjetas emitidas en el extranjero, podrán ahora agregar las de los bancos argentinos.
-Al momento de su lanzamiento en otros lugares del mundo, desde Google se había explicado que la aplicación Wallet permite más opciones que almacenar las tarjetas de crédito y débito ya que también está destinada a cargar otra clase de productos como las tarjetas de fidelidad de supermercados o cadenas comerciales para acumular puntos o premios, gift cards para hacer regalos, certificados de vacunación Covid, tarjetas de embarque para un vuelo y las tarjetas para viajar en transporte público.
-Sobre esto último, el usuario @MockelH se adelantó a pedir: “Salió Google Wallet en ARG. @TarjetaSUBEok dale habilitá que podamos cargar la tarjeta y pagar con el reloj”. Otro usuario de un blog especializado en viajes, @SirChandlerBlog, señaló: “Esto es muy útil para la vida diaria, pero fundamental para los viajes. Ciudades con sistemas más ABIERTOS que el de la SUBE, permiten el pago directo con los celulares en el transporte público. Así es en Río de Janeiro, Londres o New York”.
-Habrá que esperar para saber cuáles de esas opciones serán posibles en la Argentina. Lo cierto es que la característica principal de la billetera Google Wallet y de Google Pay es que funciona con el sistema contactless (sin contacto), es decir, acercando el propio celular a la terminal POS (más conocida como posnet, una de sus marcas) para que se registre el pago. De esa forma, en algunos casos puede acortar al mínimo el momento del pago en comparación con otras alternativas. Ya casi en desuso la opción de pagar con tarjeta, esperar un ticket y firmarlo, el pago a través de esta vía busca no tener la necesidad de llevar todas las tarjetas en el bolsillo sino cargarlas “digitalmente” en el celular. También se diferencia de los pagos con código QR, muy difundidos en la Argentina, que requieren abrir la aplicación y enfocar con la cámara del celular antes de concretar el pago.
-La clave para poder disponer de este medio de pago, muy utilizado en muchos países del mundo, es que el teléfono celular cuente con la tecnología NFC, algo que también viene expandiéndose en los últimos años en la Argentina. Esa tecnología presente en muchos celulares Android del mercado es la que viabiliza el “pago por aproximación”, simplemente acercando el teléfono a la terminal POS sin necesidad de utilizar la tarjeta de plástico.
+Por  Ximena Casas
+La portavoz presidencial Gabriela Cerruti y el precandidato a Jefe de Gobierno porteño por Juntos por el Cambio Martín Lousteau se cruzaron a través de las redes sociales por distintas visiones sobre el crecimiento y la creación de empleo en la Argentina en las últimas décadas.
+En una entrevista con Infobae, el economista Lousteau aseguró que la economía Argentina “está trabada”, no crea trabajo y hace 50 años que no crece. Luego de la publicación, Cerruti le respondió con una serie de tuits donde destacó que van 31 meses de crecimiento consecutivo del trabajo registrado, el período de crecimiento más prolongado de los últimos 14 años. “En 31 meses se incorporaron 514.000 trabajadoras y trabajadores a empresas privadas”, dijo la funcionaria.
+“Ante la afirmación de que el país no crece te acerco estos datos: el PBI en 1971, 50 años para atrás desde el último dato, fue de 32.29 mil millones de dólares, a 2021 este dato creció a 487.23 mil millones. Si eso no es crecimiento”, detalló Cerruti. Pero Lousteau desmintió esas cifras: “Estos números implicarían que el ingreso per cápita argentino creció 674% desde 1971, aumentando a una tasa promedio del 4,2% por año. Argentina estaría en el puesto 11 del ranking de países con mayor crecimiento en este período, junto con India, Malasia, Singapur, Corea y China, entre otros”.
+¿Cuál es la visión de los economistas sobre la creación de empleo en la Argentina?
+“Más allá de los números exactos, el punto central es que el empleo que se creó en los últimos años fue casi todo en el sector público y muy poco en el sector privado formal. Puede haber crecido algo pero prácticamente nada. La mayor parte del empleo se genera en el sector público o a través de monotributistas o empleo no formal. Claramente no es una economía dinámica que cree empleo de calidad. Crea empleo muy precarios o en el sector público, lo cual es un seguro encubierto de desempleo”, resaltó el economista Miguel Kiguel, director de Econviews e integrante del Centro para la Estabilidad Financiera (CEF).
+Juan Luis Bour, director y Economista Jefe de FIEL, desmintió con números los argumentos presentados por Cerruti:
+- El último dato oficial publicado (febrero) muestra que el empleo formal privado (EPF) creció 247.000 puestos en 11 años, desde febrero de 2012 a febrero 2023: apenas 22.000 puestos por año. En el mismo período, la misma estadística del Ministerio de Trabajo revela que el empleo público creció 791.000 puestos.
+- Las cuentas de Cerruti comparan el último dato con el peor número de la pandemia: en junio de 2020 se habían perdido 311.000 puestos. “La recuperación de puestos se da por la ‘normalización’ de la economía luego de una profunda caída. Es un típico error de alguien que no sabe leer estadísticas”, explicó.
+- El problema central del empleo es que casi toda la creación neta de puestos es de informales, cuentapropistas y empleados públicos. En 2022, con la economía creciendo 5,2%, el 77% del nuevo empleo fue de informales, cuentapropistas y empleados públicos.
+- En la Argentina según los datos de INDEC (Cuentas de Generación del Ingreso) casi 51% de los ocupados lo están sin contrato laboral (son informales o cuentapropistas). Ellos están expuestos a fuertes oscilaciones del empleo -son lo que más ajustaron en pandemia- y los que más han perdido en términos de ingresos reales (ajustados por inflación).
+- Los asalariados privados formales son un número bastante estable que crece poco pero está sujeto a violenta oscilación de sus ingresos reales por la volatilidad de la inflación. El grupo “protegido” de asalariados es el de empleados públicos, que crece en forma estable a tasas superiores a la población y cuyos ingresos están volviendo a crecer en términos reales.
+Por otro lado, Bour también cuestionó los argumentos utilizados por Lousteau. “Los comentarios de Lousteau sobre el empleo son poco claros, y ello no contribuye a la discusión, aunque se entiende por el ambiente en que fueron formulados. El problema del empleo –si se refiere a empleo privado de calidad, es decir, asalariado formal- no es solo un tema de crecimiento económico”, dijo.
+El economista de FIEL destacó que hubo al menos dos variables ausentes en el diagnóstico del ex ministro de Economía. “La primera es que con todas las normas regulatorias anti-empleo, nadie contrata aun con crecimiento porque sabe el drama que sobreviene si se le cae la demanda; debe cerrar su fábrica, no puede reestructurar”, aseguró.
+“La segunda es que si la economía se estabiliza y tenemos una inflación de 2% anual, no mensual, las empresas que hasta ahora podían licuar costos con la inflación deberán aprender a convivir en un escenario que demanda mucha flexibilidad (ya en Convertibilidad tuvieron ese problema). Lo mismo el fisco deberá aprender a vivir sin poder licuar gasto con inflación. Todo esto es un mundo diferente que nadie parece plantear porque requiere introducir flexibilidad para poder reestructurar”, concluyó Bour
+Según el Indec, el empleo informal, sin cobertura social ni descuento jubilatorio, se ubica en niveles récord de 37,4% del total. A ese resultado se llega después de 20 años en los que sólo la mitad del empleo creado corresponde a puestos de trabajo formales, dentro del sector privado, según un estudio realizado por el Instituto para el Desarrollo Social Argentino (IDESA).
+De acuerdo a los cálculos del instituto privado, en las últimas dos décadas se crearon 6 millones de puestos de trabajo, de los cuales 1 millón fueron generados por el sector público, otros 2 millones corresponden al empleo informal y los restantes 3 millones fueron creados por el sector privado.
+Estos datos muestran que la Argentina tiene una debilidad estructural en la generación de empleos de calidad. Una primera consecuencia es que en 20 años no se logró reducir la gran cantidad de adultos en edad activa que no trabajan (inactivos y desempleados). De esto se deriva que casi la mitad de la gente en edad de trabajar permanece fuera del mercado de trabajo”, indicó IDESA en el reporte.
 Seguir leyendo:
 URLs de las imagenes:
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/4EEIF7PP5NDLVDXJKYF22K7A7I.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/M3JVQCQCRRCH7FJFZXK6DRJVQU.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/F4HC3VERWVGZDG6CQ7DOT4RBUM.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/ISYOSJVI3BCGPNEYAV6IY3PBTI.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/6PTFNINGODBFQBDLN2ZZGTD6QU.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/HPRKRXHIDJGUBCGBNLOSK4E5CU.jpg
 </t>
         </is>
       </c>
@@ -544,39 +550,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.091</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Noticia N° 07.txt</t>
+          <t>Noticia N° 06.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">Título: 
-Las exportaciones de automóviles crecieron 19% en los primeros cinco meses del año
+La inflación de mayo en la Argentina superó a la de Venezuela, según estimaciones privadas
 Resumen: 
-Aunque en menor ritmo, también el nivel de producción superó al del año pasado, en un contexto “desafiante” según los datos de la asociación que nuclea a las automotrices
+En abril ya se había registrado este resultado; cómo han variado los precios en el último año en ambos países y qué se espera para diciembre
 Contenido: 
 6 Jun, 2023
-A pesar de las crecientes dificultades para importar que impactan en los niveles de producción de los distintos sectores, la industria automotriz aumentó 19% sus exportaciones en los primeros cinco meses del año respecto al mismo período de 2022, según informó la Asociación de Fábricas de Automotores (ADEFA).
-La entidad difundió hoy los resultados de producción, ventas y exportaciones según los cuales, con 20 días hábiles de actividad, las terminales automotrices produjeron 53.282 unidades, un 14,8% por sobre los registros de mayo del año anterior cuando se fabricaron 46.422 unidades y un 2,1 % menos respecto de abril.
-En el texto se destacó que en el acumulado de enero a mayo, el sector produjo 242.255 vehículos de pasajeros y utilitarios, es decir, un 24% más respecto de las 195.306 unidades que se produjeron en el mismo período de 2022.
-“Si bien la readecuación de las líneas de montaje por mantenimiento y lanzamiento de nuevos modelos causó una leve baja en los volúmenes intermensuales, en términos interanuales, la actividad continúa registrando un crecimiento sostenido gracias al trabajo y esfuerzo de la cadena de valor” explicó Martín Galdeano, presidente de ADEFA.
-El titular de la entidad destacó también que “la actividad se mantiene en crecimiento, en un contexto que describió como “desafiante”. “Acompañando esta situación, las empresas terminales acordaron nuevas condiciones comerciales de importación hasta septiembre de 2023 y regulatorias priorizando la producción y exportación”, agregó Galdeano.
-En lo que respecta al comercio exterior, el informe de ADEFA indicó que el sector exportó 30.279 unidades en mayo, lo que mostró un alza de 13,1% en comparación con el mismo mes del año pasado y una baja de 1,5 % en su comparación con abril.
-Pese a ese leve retroceso, en el acumulado de los primeros cinco meses del año, las terminales automotrices exportaron 128.753 unidades, un 19% más respecto de las 108.157 unidades que se enviaron a diversos mercados entre enero y mayo del año pasado.
-Finalmente, en lo que respecta a ventas mayoristas, el informe arrojó que en mayo el sector automotor comercializó a la red de concesionarios 38.604 vehículos, un 14,5 % por sobre el volumen de mayo 2022 y un 14,2 % más respecto de las entregas de abril.
-Entre enero y mayo se comercializaron a los concesionarios un total de 162.723 unidades, un 13,0 % por sobre las 143.997 unidades que se entregaron en el mismo período del año anterior.
-Estos datos complementan con las cifras de patentamiento difundidas la semana pasada según las cuales en mayo crecieron los patentamientos con un total de 39.549 unidades, lo que representa una suba de 14% respecto de abril y de 12% en comparación con mayo de 2022. De este total unas 23.548 unidades corresponden a automóviles mientras que otras 13.634 unidades fueron utilitarios.
-El modelo más patentado durante mayo 2023 en Argentina volvió a ser el Fiat Cronos mientras que Toyota se mantiene como la marca más vendida. En esta ocasión, el modelo de Fiat patentó un total de 3,684 unidades, lo que significó una cuota de mercado del 9.9%. La marca que más unidades patentó durante mayo de 2023 fue la japonesa Toyota, con un total de 8,032 unidades patentadas, lo que representa una cuota de mercado del 21.6 por ciento.
+Por  Martín Kanenguiser
+La inflación de la Argentina en mayo superó a la de Venezuela, una vez más, según las estimaciones privadas de ambos países.
+El dato del Observatorio Venezolano de Finanzas (OVF), que siguen los analistas debido a la falta de rigor con las estadísticas oficiales, marcó que la suba de los precios fue del 7,6% el mes pasado, con una desaceleración en los últimos 12 meses.
+En la Argentina, según la mayoría de las estimaciones, el dato del mes pasado rondó el 9%, mientras que el Gobierno reza para que se ubique levemente por debajo de esa cifra.
+En abril, la Argentina ya había superado a Venezuela: registró un 8,4%, frente al 2,5% informado por el OVF y del 3,8% informado por el Banco Central de Venezuela, que no daba a conocer esta información desde octubre del año pasado.
+En los últimos 12 meses (mayo-mayo), según el OVF, la inflación en el país gobernado por Nicolás Maduro llegó al 458%, con una baja respecto del 485% registrado en abril. Además, desde enero la suba de precios acumulada fue del 84,9%.
+Las tendencias de la inflación de los últimos 12 meses son divergentes: en marzo el OVF registró en Venezuela el 504%, en abril 471% y en mayo 458%; en tanto, el Indec registró en Argentina un 104% en marzo, 110% en abril y se estima que este mes quedará en torno del 117% interanual; el 14 se conocerá el dato del organismo que lidera Marco Lavagna.
+Según el OVF, “en medio de una economía con evidentes signos de contracción, la tasa de inflación no da tregua. Así, en mayo de 2023, la tasa de inflación mensual alcanzó a 7,6%, la acumulada a 84,9% y la anualizada 458%. Respecto a abril, la tasa mensual de inflación se triplicó aunque la tasa de doce meses se desaceleró”.
+“Este comportamiento de la inflación está ocurriendo en un entorno donde los signos de una significativa caída del nivel de actividad son indiscutibles, ostensibles en menores ventas del comercio y una producción industrial que se contrajo durante el primer trimestre de 2023″, indicó.
+Además, “la debilidad de la demanda agregada es notoria debido a que los salarios y pensiones del sector público están pronunciadamente rezagados con respecto a la inflación y la ejecución del gasto por parte del gobierno es muy baja”.
+“Al comparar la cifra de 7,6% de inflación durante mayo respecto al aumento del tipo de cambio de 8,5% en el mismo mes, es clara la estrecha relación entre ambas variables, no obstante, como se mencionó, la debilidad de la demanda, explicada por la política de compresión salarial que ha venido aplicando el gobierno”, subrayó el OVF.
+En cuanto a los principales componentes que conforman el Índice Nacional de Precios al Consumidor, se destacaron “los aumentos experimentados por los rubros Esparcimiento 13,3%, Vestido y Calzado 16,7%, Equipamiento del Hogar 11,4% y Alquiler de Vivienda 10,3%. Los alimentos que habían tenido alzas modestas, en mayo se incrementaron 6,5%”.
+“Todo ello pone de manifiesto, que la política económica aplicada ha sido ineficaz para contener el alza de precios, aún con la retracción inducida de la demanda agregada”, concluyó el organismo independiente del régimen autoritario de Maduro.
+Hasta abril, el Banco Central de Venezuela había informado un aumento del 86% en cuatro meses, luego de no difundir los datos durante medio año.
+En tanto, la mayoría de los relevamientos de precios al consumidor de las consultoras argentinas anticipan un IPC en torno del 9%.
+C&amp;T indicó que el relevamiento de precios minoristas para la región GBA “presentó un alza mensual de 8,7%, superando largamente la variación de abril y la de mayo del año pasado. Así, la variación de doce meses trepó a 118,9%, la mayor desde agosto de 1991″.
+“El rubro de mayor incremento fue vivienda (11,6%), reflejando las subas en gas y electricidad principalmente”, aclaró.
+Los bienes y servicios varios “ocuparon el segundo lugar, con un alza de 10,6%, explicada por los cigarrillos y los artículos de tocador”.
+En tanto, “el comportamiento de esparcimiento (10%) estuvo fuertemente influido por el alza de los dólares financieros desde fines de abril, lo que se vio reflejado en el turismo y los productos electrónicos”.
+A su vez, “Alimentos y bebidas creció 8,4% en el mes. Arrancó el mes con gran impulso y luego se fue moderando. Verduras, lácteos y derivados de la harina se destacaron, al igual que los alimentos consumidos fuera del hogar y para llevar”.
+“En salud se destacó el incremento de 11% en los medicamentos, que se sumó a un nuevo ajuste en las prepagas”, indicó C&amp;T.
+“En equipamiento y mantenimiento del hogar, los artefactos para el hogar tuvieron un rol preponderante de la mano del alza de los dólares financieros y a pesar de las liquidaciones del mes”, concluyó.
+Por su parte, EcoGo informó que si bien la última semana del mes pasado registró una fuerte desaceleración en la que tuvo lugar una variación de 0,4% para los alimentos respecto a la semana anterior, en términos generales la inflación habría sido de 9,2 por ciento.
+En particular, el aumento de los precios de alimentos habría sido de 8,6 por ciento. “Si consideramos además la evolución de los alimentos consumidos fuera del hogar (10,7%), la inflación en alimentos alcanzaría el 9,0%”, aclaró la consultora que dirige Marina Dal Poggeto.
+Por otro lado, LCG detalló que “el índice de alimentos y bebidas presentó una inflación mensual de 8% promedio en las últimas 4 semanas y 8,9% punta a punta en el mismo período”.
+Este mes se sumarán aumentos en los precios de servicios como transporte, prepagas, colegios privados y combustibles, entre otros valores regulados.
+El equipo económico trata de controlar la cuestión cambiaria para que la inflación no se acelere todavía más y por este motivo se resiste al pedido del FMI para acelerar la devaluación del tipo de cambio oficial.
 Seguir leyendo:
 URLs de las imagenes:
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/FGT2TJ3K2IBPRFDZTVJQKO4N4M.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/QHN6ZKZUEVAC5DFTULBZT6K2N4.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/X7KVD46UMRFHPAA67WT565FBGU.jpg
-https://cloudfront-us-east-1.images.arcpublishing.com/infobae/LECCWGV5WZFOJFDZGAPENT7IBQ.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/GDDWRSQE5BCLRGA7APAB5V3L6M.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/XZEY2TZ2ARCKTGIM2HMLPAA3DI.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/ZRSKMH7YTREXJKUNBAHLOBLUFE.jpg
+https://cloudfront-us-east-1.images.arcpublishing.com/infobae/KABFCZJMCRDKNLA6ZZGYMJFDKQ.png
 </t>
         </is>
       </c>
